--- a/flight_log.xlsx
+++ b/flight_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSFS\Fligth generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E942A7B9-DF8F-43FF-A60C-F3FCCC725D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F450BB23-085F-4C0A-BFD2-7E6C8B9F2C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{3F8793D3-7EBC-4471-ABBB-6834BA3A3EEC}"/>
+    <workbookView xWindow="-26940" yWindow="270" windowWidth="21600" windowHeight="11385" xr2:uid="{3F8793D3-7EBC-4471-ABBB-6834BA3A3EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,11 +869,11 @@
       </c>
       <c r="J2" s="12">
         <f>SUM(J3:J52)</f>
-        <v>110.37592592592593</v>
+        <v>110.40578703703704</v>
       </c>
       <c r="K2" s="13">
         <f>SUM(K3:K52)</f>
-        <v>33.269999999999996</v>
+        <v>34.809999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1222,8 +1222,12 @@
       <c r="I12" s="1">
         <v>155</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
